--- a/DATA UPLOAD.xlsx
+++ b/DATA UPLOAD.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="44">
   <si>
     <t>NAME</t>
   </si>
@@ -149,6 +149,24 @@
   </si>
   <si>
     <t>qwerty</t>
+  </si>
+  <si>
+    <t>B2</t>
+  </si>
+  <si>
+    <t>RBL BANK112356</t>
+  </si>
+  <si>
+    <t>RBL BANK1213</t>
+  </si>
+  <si>
+    <t>B1</t>
+  </si>
+  <si>
+    <t>UNUSED</t>
+  </si>
+  <si>
+    <t>REJECTED</t>
   </si>
 </sst>
 </file>
@@ -180,7 +198,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -240,21 +258,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -265,9 +274,6 @@
     </xf>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -593,8 +599,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2"/>
+    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="AC5" sqref="AC5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -718,7 +724,7 @@
         <v>36</v>
       </c>
       <c r="B2" s="2">
-        <v>9891231942</v>
+        <v>1891231944</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>24</v>
@@ -751,7 +757,7 @@
         <v>28</v>
       </c>
       <c r="M2" s="2" t="str">
-        <f>F2&amp;"|"&amp;G2&amp;"|"&amp;H2&amp;"|"</f>
+        <f t="shared" ref="M2:M7" si="0">F2&amp;"|"&amp;G2&amp;"|"&amp;H2&amp;"|"</f>
         <v>RBL BANK|DELHI|DEEPAK29K@GMAIL.COM|</v>
       </c>
       <c r="N2" s="2" t="s">
@@ -785,7 +791,7 @@
         <v>20</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="AA2" s="2" t="s">
         <v>13</v>
@@ -804,102 +810,454 @@
       </c>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
-      <c r="T3" s="2"/>
-      <c r="U3" s="2"/>
-      <c r="V3" s="2"/>
-      <c r="W3" s="2"/>
-      <c r="X3" s="2"/>
-      <c r="Y3" s="2"/>
-      <c r="Z3" s="2"/>
-      <c r="AA3" s="2"/>
-      <c r="AB3" s="2"/>
-      <c r="AC3" s="2"/>
-      <c r="AE3" s="6"/>
+      <c r="A3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="2">
+        <v>1891231947</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M3" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>RBL BANK1213|DELHI|DEEPAK29K@GMAIL.COM|</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O3" s="4">
+        <v>45221</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="V3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="W3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="X3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD3" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE3" s="5" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
+      <c r="A4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="2">
+        <v>1891231950</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M4" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>RBL BANK112356|DELHI|DEEPAK29K@GMAIL.COM|</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="O4" s="4">
+        <v>45221</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>37</v>
+      </c>
       <c r="Q4" s="4"/>
       <c r="R4" s="4"/>
       <c r="S4" s="4"/>
-      <c r="T4" s="2"/>
-      <c r="U4" s="2"/>
-      <c r="V4" s="2"/>
-      <c r="W4" s="2"/>
-      <c r="X4" s="2"/>
-      <c r="Y4" s="2"/>
-      <c r="Z4" s="2"/>
-      <c r="AA4" s="2"/>
-      <c r="AB4" s="2"/>
-      <c r="AC4" s="2"/>
-      <c r="AD4" s="5"/>
-      <c r="AE4" s="5"/>
+      <c r="T4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="U4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="V4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="W4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="X4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD4" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE4" s="5" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
+      <c r="A5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="2">
+        <v>1891231953</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M5" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>RBL BANK112356|DELHI|DEEPAK29K@GMAIL.COM|</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O5" s="4">
+        <v>45221</v>
+      </c>
+      <c r="P5" s="4" t="s">
+        <v>37</v>
+      </c>
       <c r="Q5" s="4"/>
       <c r="R5" s="4"/>
       <c r="S5" s="4"/>
-      <c r="T5" s="2"/>
-      <c r="U5" s="2"/>
-      <c r="V5" s="2"/>
-      <c r="W5" s="2"/>
-      <c r="X5" s="2"/>
-      <c r="Y5" s="2"/>
-      <c r="Z5" s="2"/>
-      <c r="AA5" s="2"/>
-      <c r="AB5" s="2"/>
-      <c r="AC5" s="2"/>
-      <c r="AD5" s="5"/>
-      <c r="AE5" s="5"/>
+      <c r="T5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="U5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="V5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="W5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="X5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD5" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE5" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="2">
+        <v>1891231956</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M6" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>RBL BANK112356|DELHI|DEEPAK29K@GMAIL.COM|</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="O6" s="4">
+        <v>45221</v>
+      </c>
+      <c r="P6" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
+      <c r="T6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="U6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="V6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="W6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="X6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD6" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE6" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="2">
+        <v>1891231959</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M7" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>RBL BANK112356|DELHI|DEEPAK29K@GMAIL.COM|</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O7" s="4">
+        <v>45221</v>
+      </c>
+      <c r="P7" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4"/>
+      <c r="S7" s="4"/>
+      <c r="T7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="U7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="V7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="W7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="X7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z7" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC7" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD7" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE7" s="5" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
@@ -918,8 +1276,8 @@
       <c r="B11" s="1"/>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A12" s="7"/>
-      <c r="B12" s="8"/>
+      <c r="A12" s="6"/>
+      <c r="B12" s="7"/>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
@@ -930,8 +1288,8 @@
       <c r="B14" s="1"/>
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A15" s="7"/>
-      <c r="B15" s="8"/>
+      <c r="A15" s="6"/>
+      <c r="B15" s="7"/>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
@@ -948,8 +1306,13 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="H2" r:id="rId1"/>
+    <hyperlink ref="H3" r:id="rId2"/>
+    <hyperlink ref="H4" r:id="rId3"/>
+    <hyperlink ref="H5" r:id="rId4"/>
+    <hyperlink ref="H6" r:id="rId5"/>
+    <hyperlink ref="H7" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>